--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Workspace1\DemoAutomationTesting\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="1740"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -78,12 +74,16 @@
   </si>
   <si>
     <t>karnataka</t>
+  </si>
+  <si>
+    <t>560073</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,18 +402,18 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -476,8 +476,8 @@
       <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I3">
-        <v>560073</v>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
